--- a/第三反復/02要求分析/システムテスト仕様書 (1).xlsx
+++ b/第三反復/02要求分析/システムテスト仕様書 (1).xlsx
@@ -5,18 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\git\testRepo02\02要求分析\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\git\testRepo02\第三反復\02要求分析\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801FE4BD-B837-4154-B366-3DFA37348EFD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B228E9-453D-479C-9714-5F3E3E97CF1A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20940" yWindow="315" windowWidth="19365" windowHeight="10635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mh4dBmzbJZ6GZZ/c9phoNQBJYNX2A=="/>
     </ext>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>テスト手順</t>
   </si>
@@ -247,35 +253,90 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>PowerPointのP5参照</t>
+    <t>PowerPointのP3参照</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>PowerPointのP12参照</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>PowerPointのP4参照</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">テスト前提条件として
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>にチケット情報、会員情報が
+登録されていること</t>
+    </r>
+    <rPh sb="3" eb="5">
+      <t>ゼンテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>PowerPointのP7参照
+DBに登録された情報が更新される</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PowerPointのP5参照
+</t>
     <rPh sb="13" eb="15">
       <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t xml:space="preserve">PowerPointのP7参照
+    <t xml:space="preserve">PowerPointのP9参照
 </t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>PowerPointのP9参照</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>PowerPointのP11参照</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>PowerPointのP3参照</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>PowerPointのP12参照</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>PowerPointのP4参照</t>
+    <t>PowerPointのP11参照
+DBに登録された情報が更新される</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -283,7 +344,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,6 +451,20 @@
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -736,7 +811,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -770,107 +845,110 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1089,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:S15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11:X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1169,108 +1247,108 @@
     </row>
     <row r="2" spans="1:47" ht="18.75" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="22"/>
-      <c r="AQ2" s="22"/>
-      <c r="AR2" s="22"/>
-      <c r="AS2" s="22"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="34"/>
+      <c r="AR2" s="34"/>
+      <c r="AS2" s="34"/>
     </row>
     <row r="3" spans="1:47" ht="18.75" customHeight="1" thickBot="1">
       <c r="A3" s="9"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="22"/>
-      <c r="AL3" s="22"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="22"/>
-      <c r="AO3" s="22"/>
-      <c r="AP3" s="22"/>
-      <c r="AQ3" s="22"/>
-      <c r="AR3" s="22"/>
-      <c r="AS3" s="22"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="34"/>
+      <c r="AJ3" s="34"/>
+      <c r="AK3" s="34"/>
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="34"/>
+      <c r="AO3" s="34"/>
+      <c r="AP3" s="34"/>
+      <c r="AQ3" s="34"/>
+      <c r="AR3" s="34"/>
+      <c r="AS3" s="34"/>
     </row>
     <row r="4" spans="1:47" ht="18.75" customHeight="1" thickBot="1">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1314,72 +1392,72 @@
       <c r="AS4" s="3"/>
     </row>
     <row r="5" spans="1:47" ht="18.75" customHeight="1" thickBot="1">
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" spans="1:47" ht="18.75" customHeight="1">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="32" t="s">
+      <c r="D6" s="29"/>
+      <c r="E6" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="28" t="s">
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="28" t="s">
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="28" t="s">
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="AE6" s="29"/>
-      <c r="AF6" s="29"/>
-      <c r="AG6" s="31"/>
-      <c r="AH6" s="28" t="s">
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="AI6" s="29"/>
-      <c r="AJ6" s="29"/>
-      <c r="AK6" s="31"/>
-      <c r="AL6" s="28" t="s">
+      <c r="AI6" s="36"/>
+      <c r="AJ6" s="36"/>
+      <c r="AK6" s="38"/>
+      <c r="AL6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AM6" s="29"/>
-      <c r="AN6" s="29"/>
-      <c r="AO6" s="31"/>
-      <c r="AP6" s="28" t="s">
+      <c r="AM6" s="36"/>
+      <c r="AN6" s="36"/>
+      <c r="AO6" s="38"/>
+      <c r="AP6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AQ6" s="29"/>
-      <c r="AR6" s="29"/>
-      <c r="AS6" s="30"/>
+      <c r="AQ6" s="36"/>
+      <c r="AR6" s="36"/>
+      <c r="AS6" s="37"/>
       <c r="AT6" s="1"/>
       <c r="AU6" s="1"/>
     </row>
@@ -1387,55 +1465,57 @@
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="26" t="s">
+      <c r="D7" s="43"/>
+      <c r="E7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="33"/>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="27"/>
-      <c r="AH7" s="23"/>
-      <c r="AI7" s="24"/>
-      <c r="AJ7" s="24"/>
-      <c r="AK7" s="27"/>
-      <c r="AL7" s="23"/>
-      <c r="AM7" s="24"/>
-      <c r="AN7" s="24"/>
-      <c r="AO7" s="27"/>
-      <c r="AP7" s="23"/>
-      <c r="AQ7" s="24"/>
-      <c r="AR7" s="24"/>
-      <c r="AS7" s="25"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="12"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ7" s="12"/>
+      <c r="AR7" s="12"/>
+      <c r="AS7" s="14"/>
       <c r="AT7" s="2"/>
       <c r="AU7" s="2"/>
     </row>
@@ -1443,55 +1523,57 @@
       <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="26" t="s">
+      <c r="D8" s="41"/>
+      <c r="E8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="24"/>
-      <c r="AB8" s="24"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="33"/>
-      <c r="AE8" s="24"/>
-      <c r="AF8" s="24"/>
-      <c r="AG8" s="27"/>
-      <c r="AH8" s="23"/>
-      <c r="AI8" s="24"/>
-      <c r="AJ8" s="24"/>
-      <c r="AK8" s="27"/>
-      <c r="AL8" s="23"/>
-      <c r="AM8" s="24"/>
-      <c r="AN8" s="24"/>
-      <c r="AO8" s="27"/>
-      <c r="AP8" s="23"/>
-      <c r="AQ8" s="24"/>
-      <c r="AR8" s="24"/>
-      <c r="AS8" s="25"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="12"/>
+      <c r="AN8" s="12"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="12"/>
+      <c r="AS8" s="14"/>
       <c r="AT8" s="2"/>
       <c r="AU8" s="2"/>
     </row>
@@ -1499,55 +1581,57 @@
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="26" t="s">
+      <c r="D9" s="41"/>
+      <c r="E9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="33"/>
-      <c r="AE9" s="24"/>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="27"/>
-      <c r="AH9" s="23"/>
-      <c r="AI9" s="24"/>
-      <c r="AJ9" s="24"/>
-      <c r="AK9" s="27"/>
-      <c r="AL9" s="23"/>
-      <c r="AM9" s="24"/>
-      <c r="AN9" s="24"/>
-      <c r="AO9" s="27"/>
-      <c r="AP9" s="23"/>
-      <c r="AQ9" s="24"/>
-      <c r="AR9" s="24"/>
-      <c r="AS9" s="25"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="12"/>
+      <c r="AS9" s="14"/>
       <c r="AT9" s="2"/>
       <c r="AU9" s="2"/>
     </row>
@@ -1555,55 +1639,57 @@
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="26" t="s">
+      <c r="D10" s="41"/>
+      <c r="E10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="26" t="s">
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="12"/>
+      <c r="AJ10" s="12"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="12"/>
+      <c r="AN10" s="12"/>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="24"/>
-      <c r="AB10" s="24"/>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="24"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="27"/>
-      <c r="AH10" s="23"/>
-      <c r="AI10" s="24"/>
-      <c r="AJ10" s="24"/>
-      <c r="AK10" s="27"/>
-      <c r="AL10" s="23"/>
-      <c r="AM10" s="24"/>
-      <c r="AN10" s="24"/>
-      <c r="AO10" s="27"/>
-      <c r="AP10" s="23"/>
-      <c r="AQ10" s="24"/>
-      <c r="AR10" s="24"/>
-      <c r="AS10" s="25"/>
+      <c r="AQ10" s="12"/>
+      <c r="AR10" s="12"/>
+      <c r="AS10" s="14"/>
       <c r="AT10" s="2"/>
       <c r="AU10" s="2"/>
     </row>
@@ -1611,55 +1697,57 @@
       <c r="B11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="26" t="s">
+      <c r="D11" s="41"/>
+      <c r="E11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="24"/>
-      <c r="AB11" s="24"/>
-      <c r="AC11" s="27"/>
-      <c r="AD11" s="33"/>
-      <c r="AE11" s="24"/>
-      <c r="AF11" s="24"/>
-      <c r="AG11" s="27"/>
-      <c r="AH11" s="23"/>
-      <c r="AI11" s="24"/>
-      <c r="AJ11" s="24"/>
-      <c r="AK11" s="27"/>
-      <c r="AL11" s="23"/>
-      <c r="AM11" s="24"/>
-      <c r="AN11" s="24"/>
-      <c r="AO11" s="27"/>
-      <c r="AP11" s="23"/>
-      <c r="AQ11" s="24"/>
-      <c r="AR11" s="24"/>
-      <c r="AS11" s="25"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="12"/>
+      <c r="AN11" s="12"/>
+      <c r="AO11" s="13"/>
+      <c r="AP11" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="12"/>
+      <c r="AS11" s="14"/>
       <c r="AT11" s="2"/>
       <c r="AU11" s="2"/>
     </row>
@@ -1667,55 +1755,57 @@
       <c r="B12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="26" t="s">
+      <c r="D12" s="41"/>
+      <c r="E12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="24"/>
-      <c r="AB12" s="24"/>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="33"/>
-      <c r="AE12" s="24"/>
-      <c r="AF12" s="24"/>
-      <c r="AG12" s="27"/>
-      <c r="AH12" s="23"/>
-      <c r="AI12" s="24"/>
-      <c r="AJ12" s="24"/>
-      <c r="AK12" s="27"/>
-      <c r="AL12" s="23"/>
-      <c r="AM12" s="24"/>
-      <c r="AN12" s="24"/>
-      <c r="AO12" s="27"/>
-      <c r="AP12" s="23"/>
-      <c r="AQ12" s="24"/>
-      <c r="AR12" s="24"/>
-      <c r="AS12" s="25"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ12" s="12"/>
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="14"/>
       <c r="AT12" s="2"/>
       <c r="AU12" s="2"/>
     </row>
@@ -1723,55 +1813,57 @@
       <c r="B13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="41" t="s">
+      <c r="D13" s="41"/>
+      <c r="E13" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="33"/>
-      <c r="AE13" s="24"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="27"/>
-      <c r="AH13" s="23"/>
-      <c r="AI13" s="24"/>
-      <c r="AJ13" s="24"/>
-      <c r="AK13" s="27"/>
-      <c r="AL13" s="23"/>
-      <c r="AM13" s="24"/>
-      <c r="AN13" s="24"/>
-      <c r="AO13" s="27"/>
-      <c r="AP13" s="23"/>
-      <c r="AQ13" s="24"/>
-      <c r="AR13" s="24"/>
-      <c r="AS13" s="25"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="12"/>
+      <c r="AJ13" s="12"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="12"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="12"/>
+      <c r="AS13" s="14"/>
       <c r="AT13" s="2"/>
       <c r="AU13" s="2"/>
     </row>
@@ -1779,55 +1871,57 @@
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="34" t="s">
+      <c r="D14" s="44"/>
+      <c r="E14" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="24"/>
-      <c r="AA14" s="24"/>
-      <c r="AB14" s="24"/>
-      <c r="AC14" s="27"/>
-      <c r="AD14" s="33"/>
-      <c r="AE14" s="24"/>
-      <c r="AF14" s="24"/>
-      <c r="AG14" s="27"/>
-      <c r="AH14" s="23"/>
-      <c r="AI14" s="24"/>
-      <c r="AJ14" s="24"/>
-      <c r="AK14" s="27"/>
-      <c r="AL14" s="23"/>
-      <c r="AM14" s="24"/>
-      <c r="AN14" s="24"/>
-      <c r="AO14" s="27"/>
-      <c r="AP14" s="23"/>
-      <c r="AQ14" s="24"/>
-      <c r="AR14" s="24"/>
-      <c r="AS14" s="27"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="12"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="12"/>
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="12"/>
+      <c r="AS14" s="14"/>
       <c r="AT14" s="2"/>
       <c r="AU14" s="2"/>
     </row>
@@ -1835,55 +1929,57 @@
       <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="34" t="s">
+      <c r="D15" s="44"/>
+      <c r="E15" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="36"/>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="38"/>
-      <c r="AB15" s="38"/>
-      <c r="AC15" s="39"/>
-      <c r="AD15" s="37"/>
-      <c r="AE15" s="38"/>
-      <c r="AF15" s="38"/>
-      <c r="AG15" s="39"/>
-      <c r="AH15" s="37"/>
-      <c r="AI15" s="38"/>
-      <c r="AJ15" s="38"/>
-      <c r="AK15" s="39"/>
-      <c r="AL15" s="37"/>
-      <c r="AM15" s="38"/>
-      <c r="AN15" s="38"/>
-      <c r="AO15" s="39"/>
-      <c r="AP15" s="37"/>
-      <c r="AQ15" s="38"/>
-      <c r="AR15" s="38"/>
-      <c r="AS15" s="39"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="26"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="26"/>
+      <c r="AJ15" s="26"/>
+      <c r="AK15" s="27"/>
+      <c r="AL15" s="25"/>
+      <c r="AM15" s="26"/>
+      <c r="AN15" s="26"/>
+      <c r="AO15" s="27"/>
+      <c r="AP15" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ15" s="12"/>
+      <c r="AR15" s="12"/>
+      <c r="AS15" s="14"/>
     </row>
     <row r="16" spans="1:47" ht="18.75" customHeight="1"/>
     <row r="17" ht="18.75" customHeight="1"/>
@@ -2875,41 +2971,38 @@
     <row r="1003" ht="18.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="AL12:AO12"/>
-    <mergeCell ref="AP12:AS12"/>
-    <mergeCell ref="E12:S12"/>
-    <mergeCell ref="T12:X12"/>
-    <mergeCell ref="Y12:AC12"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AH12:AK12"/>
-    <mergeCell ref="AL13:AO13"/>
-    <mergeCell ref="AP13:AS13"/>
-    <mergeCell ref="E14:S14"/>
-    <mergeCell ref="T14:X14"/>
-    <mergeCell ref="Y14:AC14"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="AH14:AK14"/>
-    <mergeCell ref="AL14:AO14"/>
-    <mergeCell ref="AP14:AS14"/>
-    <mergeCell ref="E13:S13"/>
-    <mergeCell ref="T13:X13"/>
-    <mergeCell ref="Y13:AC13"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AH13:AK13"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="E9:S9"/>
-    <mergeCell ref="E10:S10"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="Y10:AC10"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AH10:AK10"/>
-    <mergeCell ref="AL10:AO10"/>
-    <mergeCell ref="AP10:AS10"/>
-    <mergeCell ref="T9:X9"/>
-    <mergeCell ref="Y9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B2:AS3"/>
+    <mergeCell ref="AP8:AS8"/>
+    <mergeCell ref="E8:S8"/>
+    <mergeCell ref="AP6:AS6"/>
+    <mergeCell ref="AL6:AO6"/>
+    <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="E6:S6"/>
+    <mergeCell ref="AP7:AS7"/>
+    <mergeCell ref="AL7:AO7"/>
+    <mergeCell ref="AH7:AK7"/>
+    <mergeCell ref="AD7:AG7"/>
+    <mergeCell ref="Y7:AC7"/>
+    <mergeCell ref="T7:X7"/>
+    <mergeCell ref="E7:S7"/>
+    <mergeCell ref="T8:X8"/>
+    <mergeCell ref="Y8:AC8"/>
+    <mergeCell ref="AD8:AG8"/>
     <mergeCell ref="AH8:AK8"/>
     <mergeCell ref="AL8:AO8"/>
     <mergeCell ref="AL11:AO11"/>
@@ -2926,38 +3019,41 @@
     <mergeCell ref="Y11:AC11"/>
     <mergeCell ref="AD11:AG11"/>
     <mergeCell ref="AH11:AK11"/>
-    <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="Y7:AC7"/>
-    <mergeCell ref="T7:X7"/>
-    <mergeCell ref="E7:S7"/>
-    <mergeCell ref="T8:X8"/>
-    <mergeCell ref="Y8:AC8"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B2:AS3"/>
-    <mergeCell ref="AP8:AS8"/>
-    <mergeCell ref="E8:S8"/>
-    <mergeCell ref="AP6:AS6"/>
-    <mergeCell ref="AL6:AO6"/>
-    <mergeCell ref="AH6:AK6"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="E6:S6"/>
-    <mergeCell ref="AP7:AS7"/>
-    <mergeCell ref="AL7:AO7"/>
-    <mergeCell ref="AH7:AK7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="E9:S9"/>
+    <mergeCell ref="E10:S10"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="Y10:AC10"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="AL10:AO10"/>
+    <mergeCell ref="AP10:AS10"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="Y9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AL13:AO13"/>
+    <mergeCell ref="AP13:AS13"/>
+    <mergeCell ref="E14:S14"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="Y14:AC14"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="AH14:AK14"/>
+    <mergeCell ref="AL14:AO14"/>
+    <mergeCell ref="AP14:AS14"/>
+    <mergeCell ref="E13:S13"/>
+    <mergeCell ref="T13:X13"/>
+    <mergeCell ref="Y13:AC13"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AH13:AK13"/>
+    <mergeCell ref="AL12:AO12"/>
+    <mergeCell ref="AP12:AS12"/>
+    <mergeCell ref="E12:S12"/>
+    <mergeCell ref="T12:X12"/>
+    <mergeCell ref="Y12:AC12"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AH12:AK12"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -2966,6 +3062,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -3149,29 +3260,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7E8E7B0-E652-406D-B837-BD0526CE36CD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B52A77BD-87BC-49CE-BBC7-6D20E2E37CE2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A362842A-E4D8-431D-AA1D-DF760546AEC9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A362842A-E4D8-431D-AA1D-DF760546AEC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B52A77BD-87BC-49CE-BBC7-6D20E2E37CE2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7E8E7B0-E652-406D-B837-BD0526CE36CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>